--- a/biology/Botanique/Allée_Pierre-Herbart/Allée_Pierre-Herbart.xlsx
+++ b/biology/Botanique/Allée_Pierre-Herbart/Allée_Pierre-Herbart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Pierre-Herbart</t>
+          <t>Allée_Pierre-Herbart</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'allée Pierre-Herbart est une allée du 7e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Pierre-Herbart</t>
+          <t>Allée_Pierre-Herbart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'allée se situe dans le square Boucicaut dont elle constitue l'allée centrale. L'accès se fait à l'est par la place Le Corbusier, à l'intersection du boulevard Raspail et de la rue de Sèvres et à l'ouest par la rue de Babylone.
 L'accès principal est le 1, rue de Babylone.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Pierre-Herbart</t>
+          <t>Allée_Pierre-Herbart</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle tire son nom de l'écrivain, journaliste et résistant de la Seconde Guerre mondiale Pierre Herbart (1903-1974), qui vivait à proximité. Elle est dénommée ainsi par délibération du Conseil de Paris en 2018[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle tire son nom de l'écrivain, journaliste et résistant de la Seconde Guerre mondiale Pierre Herbart (1903-1974), qui vivait à proximité. Elle est dénommée ainsi par délibération du Conseil de Paris en 2018,.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Pierre-Herbart</t>
+          <t>Allée_Pierre-Herbart</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stèle de l'Association pour la mémoire des enfants juifs déportés
 Monument en hommage à Marguerite Boucicaut et à Clara de Hirsch, de Paul Moreau-Vauthier
